--- a/workflow-analysis-and-rewrite/2022-sncs/workflow-runtime-comparison-IBMQ.xlsx
+++ b/workflow-analysis-and-rewrite/2022-sncs/workflow-runtime-comparison-IBMQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wederbn\Desktop\Coding\PlanQK\qprov-content\workflow-analysis-and-rewrite\2022-sncs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC99737-F97D-4F92-B101-3E22EDBE3368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41357DF-87FC-4572-8761-0E877CE51AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="1275" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -493,6 +493,12 @@
       <c r="I2">
         <v>752</v>
       </c>
+      <c r="J2">
+        <v>1821</v>
+      </c>
+      <c r="K2">
+        <v>811</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
@@ -522,6 +528,12 @@
       <c r="I3">
         <v>698</v>
       </c>
+      <c r="J3">
+        <v>1771</v>
+      </c>
+      <c r="K3">
+        <v>738</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
@@ -551,6 +563,12 @@
       <c r="I4">
         <v>817</v>
       </c>
+      <c r="J4">
+        <v>1635</v>
+      </c>
+      <c r="K4">
+        <v>701</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
@@ -580,6 +598,12 @@
       <c r="I5">
         <v>771</v>
       </c>
+      <c r="J5">
+        <v>1732</v>
+      </c>
+      <c r="K5">
+        <v>776</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
@@ -609,6 +633,12 @@
       <c r="I6">
         <v>685</v>
       </c>
+      <c r="J6">
+        <v>1909</v>
+      </c>
+      <c r="K6">
+        <v>724</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
@@ -638,6 +668,12 @@
       <c r="I7">
         <v>732</v>
       </c>
+      <c r="J7">
+        <v>1688</v>
+      </c>
+      <c r="K7">
+        <v>754</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
@@ -667,6 +703,12 @@
       <c r="I8">
         <v>746</v>
       </c>
+      <c r="J8">
+        <v>1765</v>
+      </c>
+      <c r="K8">
+        <v>742</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
@@ -696,6 +738,12 @@
       <c r="I9">
         <v>791</v>
       </c>
+      <c r="J9">
+        <v>1732</v>
+      </c>
+      <c r="K9">
+        <v>793</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
@@ -725,6 +773,12 @@
       <c r="I10">
         <v>729</v>
       </c>
+      <c r="J10">
+        <v>1811</v>
+      </c>
+      <c r="K10">
+        <v>758</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
@@ -754,6 +808,12 @@
       <c r="I11">
         <v>773</v>
       </c>
+      <c r="J11">
+        <v>1795</v>
+      </c>
+      <c r="K11">
+        <v>711</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
@@ -791,13 +851,13 @@
         <f t="shared" si="1"/>
         <v>749</v>
       </c>
-      <c r="J12" t="e">
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K12" t="e">
+        <v>1768</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:11">
